--- a/answer.xlsx
+++ b/answer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\autograding\bin\Debug\net6.0-windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\autograding\bin\Release\net6.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE45D9CB-C78B-4529-B19D-7FE0EE73FFD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D2E0EB-69E5-42A7-AFED-D6731125E701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>01-variable</t>
   </si>
@@ -180,12 +180,6 @@
     <t>ex03-loop</t>
   </si>
   <si>
-    <t>ex01-wordle</t>
-  </si>
-  <si>
-    <t>ex02-sanmoku</t>
-  </si>
-  <si>
     <t>ex04-sort</t>
   </si>
   <si>
@@ -204,17 +198,608 @@
 5
 5</t>
   </si>
+  <si>
+    <t>11-struct</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6.000000
+4
+abcd
+abcd
+dcba
+dcba
+5
+2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4
+abcd
+abcd
+dcba
+aaaa
+2
+5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+// 構造体の定義例
+// 構造体タグ名：vec2
+// メンバ（要素）：実数x，実数y
+struct vec2 {
+    double x;
+    double y;
+};
+int main(void)
+{
+    // 初期化（メンバの初期化は配列と同じように並べて書く）
+    struct vec2 v = {2.0, 3.0};
+    // 宣言
+    struct vec2 v2;
+    // 配列とは違い，構造体は変数名でコピーが可能
+    v2 = v;
+    // 代入（それぞれの要素に対して代入することもできる）
+    v2.x = 4.0;
+    v2.y = 1.0;  // メンバにはドット演算子(.)でアクセスできる
+    // 演算もできる
+    v.x = v.x + v2.x;
+    v.y = v.y + v2.y;
+    // 配列も作れる
+    struct vec2 v_array[] = {
+        {4.0, 3.0},
+        {5.0, 2.0},
+    };
+    // 毎回 struct vec2 と書くのは冗長
+    // 型(ここではint)に別名(ここではsint32_t)を付けるtypedef構文を思い出す
+    typedef int sint32_t;  // typedefで定義した別名には慣例的に_tを付ける
+    // struct vec2に別名vec2_tを付けることで
+    typedef struct vec2 vec2_t;
+    struct vec2 v3;  // これは
+    vec2_t v4;       // このように書くことができるようになる
+    // 型名にstructが無い構造体はtypedefで別名を与えられている（覚えておく）
+    // 構造体の定義とtypedefはまとめて書くこともできる（多くの場合この形が使われる）
+    typedef struct vec3 {
+        double x;
+        double y;
+        // ここにメンバzを実数で追加しなさい
+    } vec3_t;
+    // vec3_t型の変数vecを宣言しなさい
+    // (x, y, z)に(1.0, 2.0, 3.0)を代入しなさい
+    // x + y + zを実数で表示しなさい（桁数の指定は不要）
+    // 1.0 + 2.0 + 3.0ではなく変数vecとドット演算子を使うこと
+    char str[] = "abcd";
+    int len = 0;
+    while (str[len] != '\0') {
+        len++;
+    }
+    printf("%d\n", len);  // 4
+    // 先頭から一文字ずつ表示する例
+    printf("%c", str[0]);  // a:最初の文字の添字は0
+    printf("%c", str[1]);  // b
+    printf("%c", str[2]);  // c
+    printf("%c", str[3]);  // d:最後の文字の添字は文字数(4)-1
+    printf("\n");
+    // for文で先頭から一文字ずつ表示するループ
+    for (int i = 0; i &lt; len; i++) {
+        printf("%c", str[i]);
+    }
+    printf("\n");
+    // 末尾から一文字ずつ表示する例
+    printf("%c", str[len - 1 - 0]);  // d
+    printf("%c", str[len - 1 - 1]);  // c
+    printf("%c", str[len - 1 - 2]);  // b
+    printf("%c", str[len - 1 - 3]);  // a
+    printf("\n");
+    // for文で末尾から一文字ずつ表示するループ
+    for (int i = 0; i &lt; len; i++) {
+        printf("%c", str[0]);  // この行(str[0])の間違いを修正しなさい
+    }
+    printf("\n");
+    int a = 2, b = 5;
+    int tmp;
+    // 変数aと変数bの値を入れ替えなさい（tmpを使う）
+    printf("%d\n", a);  // 5
+    printf("%d\n", b);  // 2
+    return 0;
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// .hファイルをインクルード
+int main(void)
+{
+    // 整数 i を初期化
+    // 実数 d を初期化
+    // 文字 c を宣言
+    // 文字 c に代入
+    // 整数 i を表示
+    // 実数 d を表示
+    // 文字 c を表示
+    // 2
+    // 5.000000
+    // 0
+    // i, d, c を１つの文(;は１つだけ)で表示
+    // 2
+    // 5.000000
+    // 0
+    // 以下の文を//ではないコメントにしなさい
+    この文字をコメントにしなさい
+    // 以下の文のエラーを修正しなさい
+    return　0;
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// .hファイルをインクルード
+int main(void)
+{
+    // 整数 i を 250 で初期化
+    // コンソールから整数を i に読み込む
+    // 完成まではコメントアウトしておく
+    // 二倍を表示する．
+    // 半分を表示する．
+    // 符号を反転して表示する．
+    // 一の位の値で整数 a を初期化
+    // 十の位の値で整数 b を初期化
+    // 百の位の値で整数 c を初期化
+    // 一の位，十の位，百の位を表示する．
+    // 入力された値の順番を反転して表示する．（最上位の０も表示する）
+    // 入力された値の順番を反転して表示する．（最上位の０は表示しない）
+    // 整数 reverse に値を作成して表示する．
+    return 0;
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// .hファイルをインクルード
+int main(void)
+{
+    // 整数 i を 101 で初期化
+    // コンソールから整数を i に読み込む
+    // 完成まではコメントアウトしておく
+    // i が奇数（２で割り切れない）ならodd
+    // i が偶数（２で割り切れる）ならevenと表示する．
+    // 整数 sum を 0 で初期化
+    // 一の位が 1 なら sum を +1 する．
+    // 十の位が一の位になるようにするには i を何で割ればいいか考える
+    // 以下，十の位と百の位をカウント（一の位と同じことをすればいい）
+    // sum が
+    // 0 なら zero
+    // 1 なら one
+    // 2 なら two
+    // 3 なら three と表示する
+    // 答えと同じになったら
+    // scanf を有効にしていろいろな数値で試す．
+    return 0;
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// .hファイルをインクルード
+int main(void)
+{
+    // ４つの差を表示する
+    // 整数9引く0を整数で表示
+    // 文字9引く0を整数で表示
+    // 文字Z引くAを整数で表示
+    // 文字z引くaを整数で表示
+    // aからzは26文字である．文字z-aに何を足せばいいか
+    // 文字z引く文字aに（ある値）を足して26になるようにして表示する
+    // 文字型の変数cを作成する．（文字aで初期化しておく）
+    // コンソールから文字をcに読み込む
+    // 完成まではコメントアウトしておく
+    // 整数型distを作成する．c引く文字aに（ある数）を足すと文字数が求まる．
+    // distを表示する
+    // 文字cから文字aを引き，文字Aを足して文字として表示する．
+    // 入力された文字を次の文字にする方法を考える
+    {
+        // 整数型iを作成し，cに何を足せばいいか考える．
+        // 整数型iを文字として表示する．
+    }
+    // 入力がzだった場合にaにする方法を考える
+    {
+        // a-zではなく，0-9なら下記で求まる．
+        // int i = (9 + 1) % 10;
+        // ただし，'9'は文字9を表すコード（数字では57）なので下記は間違い
+        // int i = ('9' + 1) % 10;
+        // '9'から'0'を引く必要がある．'9'(int:57) - '0'(int:48) == 9
+        // int i = (c - '0' + 1) % ('9' - '0' + 1) + '0';  // 最後に'0'を足す．
+        // a-zは自分で考えてみる．
+        // ここで表示する．
+    }
+    // 入力された文字を一つ前の文字にする方法を考える
+    {
+        // これも0-9で考えてみる．（0を入力したとき9にする式を考える．）
+        // int c = 0;
+        // int i = (c - 1) % 10;
+        // (c - 1)がマイナスになり剰余（余り）が求められない．
+        // (c - 1 )に何かを足して9にしたい．
+        // a-zを自分で考えてみる．
+        // ここで表示する．
+    }
+    return 0;
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main(void)
+{
+    /*整数aを0で初期化する，整数bを6で初期化する*/
+    /*aとbをコンソールから読み取る*/
+    printf("aは1以上かつ8以下");
+    if (/*条件式「aは1以上かつ8以下」をここに書く*/) {
+        printf("である\n");
+    } else {
+        printf("ではない\n");
+    }
+    if (/*条件式「bは2より小さいまたは5より大きい」をここに書く*/) {
+        printf("bは2より小さいまたは5より大きい\n");
+    }
+    // 条件演算子（三項演算子）
+    // a ? b : c
+    // aが非0ならb，0ならcを返す
+    printf(a ? "a!=0\n" : "a==0\n");
+    // 整数を条件式に使うと
+    // 非0(0以外)は真(true)→条件式は成立する
+    // 0は偽(false)→条件式は不成立
+    // 先の文（条件演算子）をif文で書き換えなさい
+    /*if文でprintf(a ? "a!=0\n" : "a==0\n");を書き換える*/
+    // 以下は説明
+    if (1) {
+        // !（論理否定演算子）
+        // 真偽を反転させる
+        printf("論理否定演算子\n");
+        {
+            printf("%d\n", !5);  // 非0を否定すると0になる
+            printf("%d\n", !!5);  // 上記0の否定なので5には戻らず1になる
+            printf("%d\n", 4 &gt; 2);     // 真(1)
+            printf("%d\n", !(4 &gt; 2));  // 偽(0)
+        }
+        printf("短絡評価\n");
+        {
+            // 以下のif文はどちらも成立するがdに違いが出る
+            int c, d;
+            c = 1;
+            d = 0;
+            if (c &gt; 0 || ++d) {
+                // c &gt; 0で結果が確定するので++dは評価（実行）されない
+                printf("c&gt;0が真(1)\n");
+            }
+            printf("d=%d\n", d);
+            c = -1;
+            d = 0;
+            if (c &gt; 0 || ++d) {
+                // c &gt; 0では結果わからないので++dまで評価（実行）される
+                printf("++dが真(1)\n");
+            }
+            printf("d=%d\n", d);
+        }
+    }
+    return 0;
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#include &lt;stdbool.h&gt;
+#include &lt;stdio.h&gt;
+int main(void)
+{
+    int a = 7;
+    /*ここで整数aを読み込む（aは0から9）*/
+    // 0からaまで順（昇順）に表示する
+    {
+        int i = 0;
+        // while文
+        printf("\n");
+        // for文
+        printf("\n");
+    }
+    // 0からaまで順（昇順）に偶数だけ表示する
+    {
+        int i = 0;
+        // while文
+        printf("\n");
+        // for文
+        printf("\n");
+    }
+    // aから0まで順（降順）に表示する
+    {
+        int i = a;
+        // while文
+        printf("\n");
+        // for文
+        printf("\n");
+    }
+    // aから0まで順（降順）に偶数だけ表示する
+    {
+        // 下記は条件演算子を使うとこのように書ける
+        // int i = a % 2 == 1 ? a - 1 : a;
+        int i = a;
+        if (i % 2 == 1) {
+            i = i - 1;
+        }
+        // while文
+        printf("\n");
+        // for文
+        printf("\n");
+    }
+    // do文の使いどころ例
+    if (0) {
+        // 必ず一度は処理をしてほしい場合
+        // 下記は年齢を入力して20歳未満なら再入力になるコード
+        int age;
+        do {
+            printf("20歳以上の年齢を入力してください\n");
+            scanf("%d", &amp;age);
+        } while (age &lt; 20);
+        // while文でも書けるが同じコードが2回出現し保守性が下がる
+        {
+            printf("20歳以上の年齢を入力してください\n");
+            scanf("%d", &amp;age);
+        }
+        while (age &lt; 20) {
+            printf("20歳以上の年齢を入力してください\n");
+            scanf("%d", &amp;age);
+        }
+        // gotoにしたほうが見やすくなるコードを書き換えることもできる
+        // 下記はエラーがないときだけ，ある処理を実行しなければいけない例
+        {
+            bool is_error0 = false;
+            bool is_error1 = false;
+            if (is_error0) goto error;  // エラーならラベルにジャンプ
+            if (is_error1) goto error;  // エラーならラベルにジャンプ
+            printf("エラーがないときの処理\n");
+        error:;
+        }
+        // do文を用いることでgotoが消せる
+        do {
+            bool is_error0 = false;
+            bool is_error1 = false;
+            if (is_error0) break;  // エラーならdo文を抜ける
+            if (is_error1) break;  // エラーならdo文を抜ける
+            printf("エラーがないときの処理\n");
+        } while (false);  // 条件falseなのでループすることはない
+    }
+    return 0;
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+// 下記を変数に代入すると0~100の値がランダムに取得できる
+// 提出前の動作確認にどうぞ
+#include &lt;stdlib.h&gt;
+int input_score(void) { return rand() % 101; }
+int main(void)
+{
+    // 整数sumを0で初期化
+    // 整数max_scoreを0で初期化
+    // 整数min_scoreを100で初期化
+    // 整数studentを宣言
+    // studentsをコンソールから読み取る
+    // 整数scoreを宣言
+    // scoreをコンソールから読み取る
+    // 合計sumを更新
+    // min_scoreを更新
+    // max_scoreを更新
+    // 以上を人数分繰り返し
+    // 下記を出力
+    // スペースは不要．平均点の桁数指定は不要（%lfで出力）
+    // 提出人数
+    // 最低点
+    // 最高点
+    // 合計点
+    // 平均点
+    return 0;
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+#define STUDENTS 4
+int main(void)
+{
+    int score[] = {0, 55, 60, 0};
+    /* 配列scoreの先頭の要素に30を代入する */
+    /* 配列scoreの最後の要素にコンソールから整数を読み込む */
+    /* 整数sumを0で初期化 */
+    /* 整数high_scoreを0で初期化 */
+    /* 整数low_scoreを100で初期化 */
+    /* 繰り返しと分岐を使ってsum，high_score，low_scoreを求める */
+    /* sum，high_score，low_scoreを順に表示する．数字だけでよい */
+    /* 実数meanを平均点で初期化する（キャスト，型変換を思い出す） */
+    /* 実数meanを表示する．数字だけでよい */
+    /* 繰り返しを使って全員の合否を表示する */
+    /* scanfには65を入力して問題文と答え合わせする */
+    return 0;
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+#define ARRAY_LEN 8
+int main(void)
+{
+    char str[ARRAY_LEN];
+    /* コンソールから文字列strに文字列を読み込む */
+    /* 読み込んだ文字列strを表示する */
+    /* 整数lenを0で初期化する */
+    /* 整数numbersを0で初期化する */
+    /* 繰り返しを使ってstrの文字数とstrに登場する数字(0~9)の数を調べる */
+    /* len，numbersを順に表示する．数字だけでよい */
+    /* Ous9と表示されるように文字を配列strに代入する（NULL文字('\0')を思い出す）
+     */
+    /* strを表示する */
+    /* strに0から順に入れられるだけ文字を代入する */
+    /* NULL文字('\0')をstrの最後に入れる */
+    /* strを表示して0123456と表示されることを確認する */
+    if (1) {
+        // 文字型の配列を初期化する方法は２通りある
+        // 文字列の最後には'\0'があるので．どちらも要素数は5
+        char str0[] = "Ous9";
+        char str1[] = {'O', 'u', 's', '9', '\0'};
+        printf("%s\n", str0);
+        printf("%s\n", str1);
+        // 配列の長さはsizeof演算子で調べられる（試験には出ない）
+        // 応用プログラミングⅠの資料参照
+        printf("%u\n", (unsigned int)(sizeof(str0) / sizeof(str0[0])));
+        printf("%u\n", (unsigned int)(sizeof(str1) / sizeof(str1[0])));
+    }
+    return 0;
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+int main(void)
+{
+    int money = 100;
+    scanf("%d", &amp;money);
+    {
+        /* 整数pattern50を50円のパターン数(100円なら0,1,2枚の3通り)で初期化 */
+        /* 整数pattern10を10円のパターン数(100円なら0を含めた11通り)で初期化 */
+        /* 整数pattern05を5円のパターン数(100円なら0を含めた21通り)で初期化 */
+        /* 整数patternを0で初期化 */
+        /* 3重ループですべてのパターンでmoneyと一致するものをカウントする */
+        /* 整数patternを表示 */
+    }
+    // このように書いてもいいかもしれない
+    if (0) {
+        int pattern = 0;
+        // 50円の個数パターン
+        int pattern50 = money / 50 + 1;
+        for (int i = 0; i &lt; pattern50; i++) {
+            // 10円の個数パターン
+            int pattern10 = (money - i * 50) / 10 + 1;
+            for (int j = 0; j &lt; pattern10; j++) {
+                // 5円の個数パターン
+                int pattern05 = (money - i * 50 - j * 10) / 5 + 1;
+                for (int k = 0; k &lt; pattern05; k++) {
+                    if (money == i * 50 + j * 10 + k * 5) {
+                        pattern++;
+                    }
+                }
+            }
+        }
+        printf("%d\n", pattern);
+    }
+    return 0;
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+#define ARRAY_NUM 4
+/* aとbを交換する関数形式マクロSWAP_INT(a, b)を書く */
+#define
+int main(void)
+{
+    int array[ARRAY_NUM] = {18467, 6334, 41, 26500};
+    /* arrayを表示する */
+    /* 先頭から最後の要素の手前まで繰り返し */
+    {
+        /* 最後の要素からiの一つ後ろまで繰り返し */
+        {
+            /* 左隣のほうが大きければ値を入れ替える */
+        }
+    }
+    /* arrayを表示する */
+    return 0;
+}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#include &lt;stdio.h&gt;
+#define STRING_LEN 8
+// プロトタイプ宣言をここに書く（仮引数の変数名は書かない）
+int main(void)
+{
+    // オブジェクト形式マクロ(STRING_LEN)を使って
+    // （NULL文字('\0')は除いて）８文字まで入れられる文字列strを宣言する
+    // 文字列strにコンソールから文字列を読み込む
+    // 関数print_ousを呼び出す
+    // 関数print_charを呼び出す
+    // 関数int_maxを表示する
+    // 関数pow2を使って4の2乗を表示する
+    // 関数pow3を使って3の3乗を表示する
+    // 関数averageを使って2と3の平均を表示する
+    // 関数num_of_digitを使って整数3420の桁数を表示する
+    // 文字列strを表示する
+    // strと同じサイズの文字列dstを宣言する
+    // dstの先頭の要素にNULL文字('\0')を書き込む
+    // 文字列dstを表示する（先頭がNULL文字のため何も表示されない）
+    // str_copy_forを呼び出す
+    // 文字列dstを表示する
+    // str_copy_whileを呼び出す
+    // 文字列dstを表示する
+    return 0;
+}
+// 文字ousを改行付きでprintfする関数
+// 関数名：print_ous
+// 引数：なし
+// 返り値：なし
+// 文字型を改行付きでprintfする関数
+// 関数名：print_char
+// 引数：文字c
+// 返り値：なし
+// 整数の最大値(2147483647)を返す関数
+// 関数名：int_max
+// 引数：なし
+// 返り値：整数の最大値(2147483647)
+// 整数xの2乗を求める関数
+// 関数名：pow2
+// 引数：整数x
+// 返り値：整数xの2乗
+// 整数xの3乗を求める関数
+// 関数名：pow3
+// 引数：整数x
+// 返り値：整数xの3乗
+// 条件：関数内でpow2を必ず使うこと
+// 整数aとbの平均を実数で返す関数
+// 関数名：average
+// 引数：整数a, 整数b
+// 返り値：整数aとbの平均（実数）
+// 整数nの桁数を求めて返す関数
+// 関数名：num_of_digit
+// 引数：整数n
+// 返り値：整数nの桁数
+// 文字列strの文字数（NULL文字('\0')は含まない）を返す関数
+// 関数名：str_len
+// 引数：文字列（文字の配列）str
+// 返り値：文字列strの文字数（NULL文字('\0')は含まない）
+// 文字列strを文字列dstにコピーする関数
+// 関数名：str_copy_for
+// 引数：文字列（文字の配列）dst, str
+// 返り値：文字列strの文字数（NULL文字('\0')は含まない）
+// 条件：for文を使うこと
+// 文字列strを文字列dstに（アルファベット小文字は大文字にして）コピーする関数
+// 関数名：str_copy_while
+// 引数：文字列（文字の配列）dst, str
+// 返り値：文字列strの文字数（NULL文字('\0')は含まない）
+// 条件：for文を使ってはいけない</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -523,28 +1108,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="409.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="409.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -554,8 +1142,11 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="409.5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -565,8 +1156,11 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="409.5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -576,8 +1170,11 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="409.5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -587,8 +1184,11 @@
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="409.5">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -598,8 +1198,11 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="409.5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -609,8 +1212,11 @@
       <c r="C7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="409.5">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -620,8 +1226,11 @@
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="409.5">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -632,10 +1241,13 @@
         <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="409.5">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -645,39 +1257,51 @@
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="409.5">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="409.5">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>250</v>
+      </c>
+      <c r="C12">
+        <v>81</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="409.5">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <v>250</v>
-      </c>
-      <c r="C13">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="116" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>29</v>
+      <c r="D13" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/answer.xlsx
+++ b/answer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\autograding\bin\Release\net6.0-windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\autograding\bin\Debug\net6.0-windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5B8A59-605C-4D88-909A-DE776661DDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EB4E48-3A1E-40A4-A743-6530F817D567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="5080" windowWidth="19640" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8370" yWindow="2970" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>ex03-loop</t>
   </si>
@@ -562,9 +562,6 @@
     //     }
     // }
 }</t>
-  </si>
-  <si>
-    <t>16_list1.c</t>
   </si>
   <si>
     <t>80
@@ -686,6 +683,214 @@
   <si>
     <t>16-list</t>
   </si>
+  <si>
+    <t xml:space="preserve">1 3 5 
+1 3 5 6 
+1 3 4 5 6 
+1 3 4 6 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>16_list1.c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17_list1.c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17-list2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#include &lt;malloc.h&gt;
+#include &lt;stdio.h&gt;
+#define DOUBLY_LINKED_LIST 1
+typedef struct List {
+    int val;
+#if DOUBLY_LINKED_LIST
+    // １．メンバ（構造体Listのポインタ）p_prevを定義する
+    /*ここ*/;
+#endif
+    struct List *p_next;
+} list_t;
+#if DOUBLY_LINKED_LIST
+list_t root = {0, NULL, NULL};
+#else
+list_t root = {0, NULL};
+#endif
+list_t *create(int val);
+void dispose(list_t *item);
+void clear(void);
+void print_list(void);
+void joint_item(list_t *prev, list_t *item);
+list_t *find_list(int val);
+void add_item(list_t *item);
+void insert_item(list_t *prev, list_t *item);
+#if DOUBLY_LINKED_LIST
+void remove_item(list_t *item);
+#else
+void remove_item(list_t *prev, list_t *item);
+#endif
+void remove_list(int val);
+#if DOUBLY_LINKED_LIST
+void remove_list_all(int val);
+#endif
+int main(void)
+{
+    // 1 3 5 をリストに挿入
+    for (int i = 1; i &lt;= 5; i += 2) {
+        add_item(create(i));
+    }
+    print_list();
+    // 末尾に 6 を追加
+    add_item(create(6));
+    print_list();
+    // 3 の後に 4 を追加
+    insert_item(find_list(3), create(4));
+    print_list();
+    // 5 を削除
+    remove_list(5);
+    print_list();
+    clear();
+    return 0;
+}
+// list_tをvalで初期化してポインタを返す
+list_t *create(int val)
+{
+    list_t *p = (list_t *)malloc(sizeof(list_t));
+    p-&gt;val = val;
+#if DOUBLY_LINKED_LIST
+    p-&gt;p_prev = NULL;
+#endif
+    p-&gt;p_next = NULL;
+    return p;
+}
+// list_tを解放する
+void dispose(list_t *item)
+{
+    if (item) {
+        // memset(item, 0, sizeof(list_t));
+        free(item);
+    }
+}
+// リストのすべての要素を解放する
+void clear(void)
+{
+    while (root.p_next) {
+#if DOUBLY_LINKED_LIST
+        remove_item(root.p_next);
+#else
+        remove_item(&amp;root, root.p_next);
+#endif
+    }
+}
+// リストのすべての要素を表示する
+void print_list(void)
+{
+    for (list_t *p = root.p_next; p != NULL; p = p-&gt;p_next) {
+        printf("%d ", p-&gt;val);
+    }
+    printf("\n");
+}
+// prev（前のlist_t）にitem（新たなlist_t）を連結する
+void joint_item(list_t *prev, list_t *item)
+{
+    if (prev) {
+        prev-&gt;p_next = item;
+    }
+#if DOUBLY_LINKED_LIST
+    if (item) {
+        // ２．itemのp_prevにprevを代入しprevとitemをつなぐ
+        /*ここ*/ = /*ここ*/;
+    }
+#endif
+}
+// リストの末尾にitemを追加する
+void add_item(list_t *item)
+{
+#if 1
+    list_t *prev;
+    for (prev = &amp;root; prev-&gt;p_next != NULL; prev = prev-&gt;p_next) {
+    }
+#else  // while文で書くなら
+    list_t *prev = &amp;root;
+    while (prev-&gt;p_next != NULL) {
+        prev = prev-&gt;p_next;
+    }
+#endif
+    joint_item(prev, item);
+}
+// prevの次にitemを挿入する
+void insert_item(list_t *prev, list_t *item)
+{
+    list_t *next = prev-&gt;p_next;  // prevの次のノード
+    joint_item(prev, item);       // prevにitemをつなぐ
+    joint_item(item, next);  // itemにprevの次だったノードをつなぐ
+}
+// itemをリストから削除する
+#if DOUBLY_LINKED_LIST
+void remove_item(list_t *item)
+{
+    // ３．itemのp_prevとp_nextをつなぐ
+    list_t *prev = /*ここ*/;
+    list_t *next = /*ここ*/;
+    joint_item(prev, next);
+    dispose(item);
+}
+#else
+void remove_item(list_t *prev, list_t *item)
+{
+    list_t *next = item-&gt;p_next;  // itemの次のノード
+    joint_item(prev, next);  // prevにitemの次だったノードをつなぐ
+    dispose(item);           // itemを解放(free)する
+}
+#endif
+// 引数valと一致するデータを持つlist_tのアドレスを探して返す
+list_t *find_list(int val)
+{
+    for (list_t *p = root.p_next; p != NULL; p = p-&gt;p_next) {
+        if (p-&gt;val == val) {
+            return p;
+        }
+    }
+    return NULL;
+}
+// valをリストから探してそのノードを削除する
+#if DOUBLY_LINKED_LIST
+void remove_list(int val)
+{
+    // ４．find_listでvalを持つノードを探し削除する
+    list_t *p = /*ここ*/;
+    if (p) {
+        /*ここ*/;
+    }
+}
+// valをリストから探して全てのノードを削除する
+void remove_list_all(int val)
+{
+    list_t *p;
+    while (p = find_list(val)) {
+        remove_item(p);
+    }
+}
+#else
+void remove_list(int val)
+{
+    list_t *prev = &amp;root;
+    list_t *p = root.p_next;
+    while (p != NULL) {
+        if (p-&gt;val == val) {
+            remove_item(prev, p);
+            break;  // ここをコメントアウトすると一致したものすべてを削除
+        }
+        prev = p;
+        p = p-&gt;p_next;
+    }
+}
+#endif</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -695,13 +900,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1012,18 +1217,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.4140625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="409.5">
@@ -1245,16 +1450,30 @@
     </row>
     <row r="15" spans="1:5" ht="409.5">
       <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="409.5">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>47</v>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/answer.xlsx
+++ b/answer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\autograding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oyama\Project\autograding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE907F1B-59A1-44B7-89AA-0505304A4494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A57E04-1004-4667-B558-473287D55835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30490" yWindow="4900" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -794,13 +794,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1111,21 +1111,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.4140625" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="409.5">
+    <row r="1" spans="1:7" ht="409.5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1135,11 +1136,12 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5">
+    <row r="2" spans="1:7" ht="409.5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1152,11 +1154,12 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409.5">
+    <row r="3" spans="1:7" ht="409.5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1169,11 +1172,12 @@
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="409.5">
+    <row r="4" spans="1:7" ht="409.5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1186,11 +1190,12 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.5">
+    <row r="5" spans="1:7" ht="409.5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1203,11 +1208,12 @@
       <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="409.5">
+    <row r="6" spans="1:7" ht="409.5">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1220,11 +1226,12 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="409.5">
+    <row r="7" spans="1:7" ht="409.5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1237,11 +1244,12 @@
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409.5">
+    <row r="8" spans="1:7" ht="409.5">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1254,11 +1262,12 @@
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="409.5">
+    <row r="9" spans="1:7" ht="409.5">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1271,14 +1280,15 @@
       <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="409.5">
+    <row r="10" spans="1:7" ht="409.5">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1291,11 +1301,12 @@
       <c r="D10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="409.5">
+    <row r="11" spans="1:7" ht="409.5">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -1305,14 +1316,15 @@
       <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="409.5">
+    <row r="12" spans="1:7" ht="409.5">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1325,11 +1337,11 @@
       <c r="D12">
         <v>81</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="409.5">
+    <row r="13" spans="1:7" ht="409.5">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1339,7 +1351,8 @@
       <c r="D13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
